--- a/client/src/Excel/Data/Countries/sy.xlsx
+++ b/client/src/Excel/Data/Countries/sy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E0018-906A-4D5A-A2AA-217601DDF603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AD9D20-6F30-4F64-A5FD-0F4DE961530A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1374,16 +1374,16 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84765625" customWidth="1"/>
+    <col min="4" max="4" width="11.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1507,7 +1507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1569,7 +1569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>104</v>
       </c>
       <c r="D4" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1631,7 +1631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1693,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1755,7 +1755,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1817,7 +1817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>59</v>
       </c>
       <c r="D8" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -1879,7 +1879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -1941,7 +1941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -2003,7 +2003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11">
         <v>2025</v>
@@ -2065,7 +2065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12">
         <v>2025</v>
@@ -2127,7 +2127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13">
         <v>2025</v>
@@ -2189,7 +2189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>198</v>
       </c>
       <c r="D14" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14">
         <v>2025</v>
@@ -2251,7 +2251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15">
         <v>2025</v>
